--- a/data/totals.xlsx
+++ b/data/totals.xlsx
@@ -63,7 +63,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -123,8 +123,8 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +446,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7">
-        <f>C3+D3</f>
+        <f t="shared" ref="E3:E14" si="0">C3+D3</f>
         <v>0</v>
       </c>
       <c r="F3" s="7"/>
@@ -466,7 +466,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7">
-        <f>C4+D4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="7"/>
@@ -480,7 +480,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7">
-        <f>C5+D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="7"/>
@@ -494,7 +494,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7">
-        <f>C6+D6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="7"/>
@@ -508,7 +508,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7">
-        <f>C7+D7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="7"/>
@@ -522,7 +522,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7">
-        <f>C8+D8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="7"/>
@@ -536,7 +536,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7">
-        <f>C9+D9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="7"/>
@@ -550,7 +550,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7">
-        <f>C10+D10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="7"/>
@@ -564,7 +564,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7">
-        <f>C11+D11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="7"/>
@@ -582,11 +582,11 @@
         <v>5091.68</v>
       </c>
       <c r="E12" s="7">
-        <f>C12+D12</f>
+        <f t="shared" si="0"/>
         <v>9420.7900000000009</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" ref="F3:F12" si="0">E12-E13</f>
+        <f t="shared" ref="F12" si="1">E12-E13</f>
         <v>-3682.3600000000006</v>
       </c>
       <c r="G12" s="7"/>
@@ -603,7 +603,7 @@
         <v>5088.76</v>
       </c>
       <c r="E13" s="7">
-        <f>C13+D13</f>
+        <f t="shared" si="0"/>
         <v>13103.150000000001</v>
       </c>
       <c r="F13" s="7">
@@ -624,7 +624,7 @@
         <v>5085.53</v>
       </c>
       <c r="E14" s="7">
-        <f>C14+D14</f>
+        <f t="shared" si="0"/>
         <v>12466.21</v>
       </c>
       <c r="F14" s="7">
@@ -672,11 +672,11 @@
         <v>7081.86</v>
       </c>
       <c r="E18" s="7">
-        <f>C18+D18</f>
+        <f t="shared" ref="E18:E29" si="2">C18+D18</f>
         <v>15127.74</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" ref="F18:F27" si="1">E18-E19</f>
+        <f t="shared" ref="F18:F27" si="3">E18-E19</f>
         <v>-2653.8999999999996</v>
       </c>
       <c r="G18" s="7">
@@ -699,11 +699,11 @@
         <v>9077.2800000000007</v>
       </c>
       <c r="E19" s="7">
-        <f>C19+D19</f>
+        <f t="shared" si="2"/>
         <v>17781.64</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1981.4500000000007</v>
       </c>
       <c r="G19" s="7"/>
@@ -720,11 +720,11 @@
         <v>11071.29</v>
       </c>
       <c r="E20" s="7">
-        <f>C20+D20</f>
+        <f t="shared" si="2"/>
         <v>19763.09</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4125.83</v>
       </c>
       <c r="G20" s="7"/>
@@ -741,11 +741,11 @@
         <v>11064.51</v>
       </c>
       <c r="E21" s="7">
-        <f>C21+D21</f>
+        <f t="shared" si="2"/>
         <v>15637.26</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1339.0000000000018</v>
       </c>
       <c r="G21" s="7"/>
@@ -762,11 +762,11 @@
         <v>11057.51</v>
       </c>
       <c r="E22" s="7">
-        <f>C22+D22</f>
+        <f t="shared" si="2"/>
         <v>16976.260000000002</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2162.9599999999991</v>
       </c>
       <c r="G22" s="7"/>
@@ -783,11 +783,11 @@
         <v>11050.51</v>
       </c>
       <c r="E23" s="7">
-        <f>C23+D23</f>
+        <f t="shared" si="2"/>
         <v>19139.22</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1078.6599999999999</v>
       </c>
       <c r="G23" s="7"/>
@@ -804,11 +804,11 @@
         <v>11050.51</v>
       </c>
       <c r="E24" s="7">
-        <f>C24+D24</f>
+        <f t="shared" si="2"/>
         <v>20217.88</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-394.27000000000044</v>
       </c>
       <c r="G24" s="7"/>
@@ -825,11 +825,11 @@
         <v>11036.75</v>
       </c>
       <c r="E25" s="7">
-        <f>C25+D25</f>
+        <f t="shared" si="2"/>
         <v>20612.150000000001</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1057.489999999998</v>
       </c>
       <c r="G25" s="7"/>
@@ -846,11 +846,11 @@
         <v>11029.99</v>
       </c>
       <c r="E26" s="7">
-        <f>C26+D26</f>
+        <f t="shared" si="2"/>
         <v>21669.64</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2988.9800000000032</v>
       </c>
       <c r="G26" s="7"/>
@@ -867,11 +867,11 @@
         <v>11023.01</v>
       </c>
       <c r="E27" s="7">
-        <f>C27+D27</f>
+        <f t="shared" si="2"/>
         <v>24658.620000000003</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>98.000000000003638</v>
       </c>
       <c r="G27" s="7"/>
@@ -888,7 +888,7 @@
         <v>11016.49</v>
       </c>
       <c r="E28" s="7">
-        <f>C28+D28</f>
+        <f t="shared" si="2"/>
         <v>24560.62</v>
       </c>
       <c r="F28" s="7">
@@ -909,7 +909,7 @@
         <v>11009.52</v>
       </c>
       <c r="E29" s="7">
-        <f>C29+D29</f>
+        <f t="shared" si="2"/>
         <v>22507.96</v>
       </c>
       <c r="F29" s="7">
@@ -950,11 +950,11 @@
         <v>11002.54</v>
       </c>
       <c r="E33" s="7">
-        <f>C33+D33</f>
+        <f t="shared" ref="E33:E44" si="4">C33+D33</f>
         <v>23178.620000000003</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" ref="F33:F42" si="2">E33-E34</f>
+        <f t="shared" ref="F33:F42" si="5">E33-E34</f>
         <v>2121.3000000000029</v>
       </c>
       <c r="G33" s="7">
@@ -977,11 +977,11 @@
         <v>10995.79</v>
       </c>
       <c r="E34" s="7">
-        <f>C34+D34</f>
+        <f t="shared" si="4"/>
         <v>21057.32</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>751.36000000000058</v>
       </c>
       <c r="G34" s="7"/>
@@ -998,11 +998,11 @@
         <v>10988.81</v>
       </c>
       <c r="E35" s="7">
-        <f>C35+D35</f>
+        <f t="shared" si="4"/>
         <v>20305.96</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-151.73999999999796</v>
       </c>
       <c r="G35" s="7"/>
@@ -1019,11 +1019,11 @@
         <v>10982.06</v>
       </c>
       <c r="E36" s="7">
-        <f>C36+D36</f>
+        <f t="shared" si="4"/>
         <v>20457.699999999997</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-3330.2700000000041</v>
       </c>
       <c r="G36" s="7"/>
@@ -1040,11 +1040,11 @@
         <v>10975.09</v>
       </c>
       <c r="E37" s="7">
-        <f>C37+D37</f>
+        <f t="shared" si="4"/>
         <v>23787.97</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2011.6100000000006</v>
       </c>
       <c r="G37" s="7"/>
@@ -1061,11 +1061,11 @@
         <v>10968.13</v>
       </c>
       <c r="E38" s="7">
-        <f>C38+D38</f>
+        <f t="shared" si="4"/>
         <v>21776.36</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.7300000000032014</v>
       </c>
       <c r="G38" s="7"/>
@@ -1082,11 +1082,11 @@
         <v>10961.4</v>
       </c>
       <c r="E39" s="7">
-        <f>C39+D39</f>
+        <f t="shared" si="4"/>
         <v>21769.629999999997</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1793.3400000000038</v>
       </c>
       <c r="G39" s="7"/>
@@ -1103,11 +1103,11 @@
         <v>10954.45</v>
       </c>
       <c r="E40" s="7">
-        <f>C40+D40</f>
+        <f t="shared" si="4"/>
         <v>23562.97</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-207.54999999999563</v>
       </c>
       <c r="G40" s="7"/>
@@ -1124,11 +1124,11 @@
         <v>10947.72</v>
       </c>
       <c r="E41" s="7">
-        <f>C41+D41</f>
+        <f t="shared" si="4"/>
         <v>23770.519999999997</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-233.05000000000291</v>
       </c>
       <c r="G41" s="7"/>
@@ -1145,11 +1145,11 @@
         <v>10940.78</v>
       </c>
       <c r="E42" s="7">
-        <f>C42+D42</f>
+        <f t="shared" si="4"/>
         <v>24003.57</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-2165.1100000000006</v>
       </c>
       <c r="G42" s="7"/>
@@ -1166,7 +1166,7 @@
         <v>10934.51</v>
       </c>
       <c r="E43" s="7">
-        <f>C43+D43</f>
+        <f t="shared" si="4"/>
         <v>26168.68</v>
       </c>
       <c r="F43" s="7">
@@ -1187,7 +1187,7 @@
         <v>10927.57</v>
       </c>
       <c r="E44" s="7">
-        <f>C44+D44</f>
+        <f t="shared" si="4"/>
         <v>25333.199999999997</v>
       </c>
       <c r="F44" s="7">
@@ -1231,11 +1231,11 @@
         <v>10927.57</v>
       </c>
       <c r="E48" s="7">
-        <f>C48+D48</f>
+        <f t="shared" ref="E48:E59" si="6">C48+D48</f>
         <v>27300.71</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" ref="F48:F57" si="3">E48-E49</f>
+        <f t="shared" ref="F48:F57" si="7">E48-E49</f>
         <v>10965.189999999999</v>
       </c>
       <c r="G48" s="7">
@@ -1256,11 +1256,11 @@
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7">
-        <f>C49+D49</f>
+        <f t="shared" si="6"/>
         <v>16335.52</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1730.4500000000007</v>
       </c>
       <c r="G49" s="7"/>
@@ -1275,11 +1275,11 @@
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7">
-        <f>C50+D50</f>
+        <f t="shared" si="6"/>
         <v>14605.07</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-5.9500000000007276</v>
       </c>
       <c r="G50" s="7"/>
@@ -1294,11 +1294,11 @@
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7">
-        <f>C51+D51</f>
+        <f t="shared" si="6"/>
         <v>14611.02</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1083.7100000000009</v>
       </c>
       <c r="G51" s="7"/>
@@ -1313,11 +1313,11 @@
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7">
-        <f>C52+D52</f>
+        <f t="shared" si="6"/>
         <v>13527.31</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1124.2600000000002</v>
       </c>
       <c r="G52" s="7"/>
@@ -1332,11 +1332,11 @@
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7">
-        <f>C53+D53</f>
+        <f t="shared" si="6"/>
         <v>14651.57</v>
       </c>
       <c r="F53" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1368.67</v>
       </c>
       <c r="G53" s="7"/>
@@ -1351,11 +1351,11 @@
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7">
-        <f>C54+D54</f>
+        <f t="shared" si="6"/>
         <v>16020.24</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1604.369999999999</v>
       </c>
       <c r="G54" s="7"/>
@@ -1370,11 +1370,11 @@
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7">
-        <f>C55+D55</f>
+        <f t="shared" si="6"/>
         <v>14415.87</v>
       </c>
       <c r="F55" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2304.6600000000017</v>
       </c>
       <c r="G55" s="7"/>
@@ -1389,11 +1389,11 @@
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7">
-        <f>C56+D56</f>
+        <f t="shared" si="6"/>
         <v>12111.21</v>
       </c>
       <c r="F56" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-711.59000000000015</v>
       </c>
       <c r="G56" s="7"/>
@@ -1408,11 +1408,11 @@
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7">
-        <f>C57+D57</f>
+        <f t="shared" si="6"/>
         <v>12822.8</v>
       </c>
       <c r="F57" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-13338.939999999999</v>
       </c>
       <c r="G57" s="7"/>
@@ -1429,7 +1429,7 @@
         <v>10927.57</v>
       </c>
       <c r="E58" s="7">
-        <f>C58+D58</f>
+        <f t="shared" si="6"/>
         <v>26161.739999999998</v>
       </c>
       <c r="F58" s="7">
@@ -1450,7 +1450,7 @@
         <v>10927.57</v>
       </c>
       <c r="E59" s="7">
-        <f>C59+D59</f>
+        <f t="shared" si="6"/>
         <v>25333.199999999997</v>
       </c>
       <c r="F59" s="7">
@@ -1491,11 +1491,11 @@
         <v>10927.57</v>
       </c>
       <c r="E63" s="7">
-        <f>C63+D63</f>
+        <f t="shared" ref="E63:E74" si="8">C63+D63</f>
         <v>27448.26</v>
       </c>
       <c r="F63" s="7">
-        <f t="shared" ref="F63:F72" si="4">E63-E64</f>
+        <f t="shared" ref="F63:F72" si="9">E63-E64</f>
         <v>11112.739999999998</v>
       </c>
       <c r="G63" s="7">
@@ -1516,11 +1516,11 @@
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7">
-        <f>C64+D64</f>
+        <f t="shared" si="8"/>
         <v>16335.52</v>
       </c>
       <c r="F64" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1730.4500000000007</v>
       </c>
       <c r="G64" s="7"/>
@@ -1535,11 +1535,11 @@
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7">
-        <f>C65+D65</f>
+        <f t="shared" si="8"/>
         <v>14605.07</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-5.9500000000007276</v>
       </c>
       <c r="G65" s="7"/>
@@ -1554,11 +1554,11 @@
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7">
-        <f>C66+D66</f>
+        <f t="shared" si="8"/>
         <v>14611.02</v>
       </c>
       <c r="F66" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1083.7100000000009</v>
       </c>
       <c r="G66" s="7"/>
@@ -1573,11 +1573,11 @@
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7">
-        <f>C67+D67</f>
+        <f t="shared" si="8"/>
         <v>13527.31</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-1124.2600000000002</v>
       </c>
       <c r="G67" s="7"/>
@@ -1592,11 +1592,11 @@
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7">
-        <f>C68+D68</f>
+        <f t="shared" si="8"/>
         <v>14651.57</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-1368.67</v>
       </c>
       <c r="G68" s="7"/>
@@ -1611,11 +1611,11 @@
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7">
-        <f>C69+D69</f>
+        <f t="shared" si="8"/>
         <v>16020.24</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1604.369999999999</v>
       </c>
       <c r="G69" s="7"/>
@@ -1630,11 +1630,11 @@
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7">
-        <f>C70+D70</f>
+        <f t="shared" si="8"/>
         <v>14415.87</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2304.6600000000017</v>
       </c>
       <c r="G70" s="7"/>
@@ -1649,11 +1649,11 @@
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7">
-        <f>C71+D71</f>
+        <f t="shared" si="8"/>
         <v>12111.21</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-5605.34</v>
       </c>
       <c r="G71" s="7"/>
@@ -1668,11 +1668,11 @@
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7">
-        <f>C72+D72</f>
+        <f t="shared" si="8"/>
         <v>17716.55</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-6993.4400000000023</v>
       </c>
       <c r="G72" s="7"/>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7">
-        <f>C73+D73</f>
+        <f t="shared" si="8"/>
         <v>24709.99</v>
       </c>
       <c r="F73" s="7">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7">
-        <f>C74+D74</f>
+        <f t="shared" si="8"/>
         <v>23838.11</v>
       </c>
       <c r="F74" s="7"/>
@@ -1739,11 +1739,11 @@
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7">
-        <f>C78+D78</f>
+        <f t="shared" ref="E78:E89" si="10">C78+D78</f>
         <v>28862.97</v>
       </c>
       <c r="F78" s="7">
-        <f t="shared" ref="F78:F87" si="5">E78-E79</f>
+        <f t="shared" ref="F78:F87" si="11">E78-E79</f>
         <v>-1879.5200000000004</v>
       </c>
       <c r="G78" s="7">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7">
-        <f>C79+D79</f>
+        <f t="shared" si="10"/>
         <v>30742.49</v>
       </c>
       <c r="F79" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>11276.86</v>
       </c>
       <c r="G79" s="7"/>
@@ -1783,11 +1783,11 @@
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7">
-        <f>C80+D80</f>
+        <f t="shared" si="10"/>
         <v>19465.63</v>
       </c>
       <c r="F80" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-18034.639999999996</v>
       </c>
       <c r="G80" s="7"/>
@@ -1802,11 +1802,11 @@
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7">
-        <f>C81+D81</f>
+        <f t="shared" si="10"/>
         <v>37500.269999999997</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2695.5699999999997</v>
       </c>
       <c r="G81" s="7"/>
@@ -1821,11 +1821,11 @@
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7">
-        <f>C82+D82</f>
+        <f t="shared" si="10"/>
         <v>34804.699999999997</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-1719.3899999999994</v>
       </c>
       <c r="G82" s="7"/>
@@ -1840,11 +1840,11 @@
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7">
-        <f>C83+D83</f>
+        <f t="shared" si="10"/>
         <v>36524.089999999997</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-4014.1800000000003</v>
       </c>
       <c r="G83" s="7"/>
@@ -1859,11 +1859,11 @@
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7">
-        <f>C84+D84</f>
+        <f t="shared" si="10"/>
         <v>40538.269999999997</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>73.849999999998545</v>
       </c>
       <c r="G84" s="7"/>
@@ -1878,11 +1878,11 @@
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7">
-        <f>C85+D85</f>
+        <f t="shared" si="10"/>
         <v>40464.42</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5290.4000000000015</v>
       </c>
       <c r="G85" s="7"/>
@@ -1897,11 +1897,11 @@
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7">
-        <f>C86+D86</f>
+        <f t="shared" si="10"/>
         <v>35174.019999999997</v>
       </c>
       <c r="F86" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-158.39000000000669</v>
       </c>
       <c r="G86" s="7"/>
@@ -1916,11 +1916,11 @@
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7">
-        <f>C87+D87</f>
+        <f t="shared" si="10"/>
         <v>35332.410000000003</v>
       </c>
       <c r="F87" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2842.2200000000048</v>
       </c>
       <c r="G87" s="7"/>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7">
-        <f>C88+D88</f>
+        <f t="shared" si="10"/>
         <v>32490.19</v>
       </c>
       <c r="F88" s="7">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7">
-        <f>C89+D89</f>
+        <f t="shared" si="10"/>
         <v>28565.8</v>
       </c>
       <c r="F89" s="7"/>
@@ -1987,11 +1987,11 @@
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7">
-        <f>C93+D93</f>
+        <f t="shared" ref="E93:E104" si="12">C93+D93</f>
         <v>21938.49</v>
       </c>
       <c r="F93" s="7">
-        <f t="shared" ref="F93:F102" si="6">E93-E94</f>
+        <f t="shared" ref="F93:F102" si="13">E93-E94</f>
         <v>4102.380000000001</v>
       </c>
       <c r="G93" s="7">
@@ -2012,11 +2012,11 @@
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7">
-        <f>C94+D94</f>
+        <f t="shared" si="12"/>
         <v>17836.11</v>
       </c>
       <c r="F94" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3894.4500000000007</v>
       </c>
       <c r="G94" s="7"/>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7">
-        <f>C95+D95</f>
+        <f t="shared" si="12"/>
         <v>13941.66</v>
       </c>
       <c r="F95" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3994.9300000000003</v>
       </c>
       <c r="G95" s="7"/>
@@ -2050,11 +2050,11 @@
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7">
-        <f>C96+D96</f>
+        <f t="shared" si="12"/>
         <v>9946.73</v>
       </c>
       <c r="F96" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4247.3099999999995</v>
       </c>
       <c r="G96" s="7"/>
@@ -2069,11 +2069,11 @@
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7">
-        <f>C97+D97</f>
+        <f t="shared" si="12"/>
         <v>5699.42</v>
       </c>
       <c r="F97" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5674.42</v>
       </c>
       <c r="G97" s="7"/>
@@ -2088,11 +2088,11 @@
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7">
-        <f>C98+D98</f>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="F98" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="G98" s="7"/>
@@ -2105,11 +2105,11 @@
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7">
-        <f>C99+D99</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G99" s="7"/>
@@ -2122,11 +2122,11 @@
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7">
-        <f>C100+D100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F100" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G100" s="7"/>
@@ -2139,11 +2139,11 @@
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7">
-        <f>C101+D101</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F101" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G101" s="7"/>
@@ -2156,11 +2156,11 @@
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7">
-        <f>C102+D102</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F102" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G102" s="7"/>
@@ -2173,7 +2173,7 @@
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7">
-        <f>C103+D103</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F103" s="7">
@@ -2190,7 +2190,7 @@
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7">
-        <f>C104+D104</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F104" s="7">
